--- a/DataValueClustering/experiments/exports/study/1_Attribution_Qualifier.xlsx
+++ b/DataValueClustering/experiments/exports/study/1_Attribution_Qualifier.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Feld Dokumentation LIDO 1.0" sheetId="4" r:id="rId1"/>
     <sheet name="Feld Dokumentation LIDO 1.1" sheetId="5" r:id="rId2"/>
-    <sheet name="Cluster_Repr" sheetId="2" r:id="rId3"/>
+    <sheet name="Cluster_kurz" sheetId="2" r:id="rId3"/>
     <sheet name="Cluster_Original" sheetId="1" r:id="rId4"/>
     <sheet name="Cluster_Repr_Dists" sheetId="3" r:id="rId5"/>
   </sheets>
@@ -716,6 +716,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -725,26 +739,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1272,22 +1272,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="29"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="21"/>
       <c r="Q1" s="8"/>
     </row>
     <row r="2" spans="2:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -1565,22 +1565,22 @@
     </row>
     <row r="20" spans="2:16" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="28"/>
-      <c r="N21" s="28"/>
-      <c r="O21" s="29"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="21"/>
       <c r="P21" s="10"/>
     </row>
     <row r="22" spans="2:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -1601,583 +1601,583 @@
       <c r="P22" s="10"/>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="22"/>
-      <c r="O23" s="23"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="24"/>
+      <c r="O23" s="25"/>
       <c r="P23" s="10"/>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B24" s="17"/>
-      <c r="C24" s="22" t="s">
+      <c r="C24" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="22"/>
-      <c r="M24" s="22"/>
-      <c r="N24" s="22"/>
-      <c r="O24" s="23"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="24"/>
+      <c r="O24" s="25"/>
       <c r="P24" s="10"/>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B25" s="17"/>
-      <c r="C25" s="22" t="s">
+      <c r="C25" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="22"/>
-      <c r="M25" s="22"/>
-      <c r="N25" s="22"/>
-      <c r="O25" s="23"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="25"/>
       <c r="P25" s="10"/>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B26" s="17"/>
-      <c r="C26" s="22" t="s">
+      <c r="C26" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="22"/>
-      <c r="M26" s="22"/>
-      <c r="N26" s="22"/>
-      <c r="O26" s="23"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="24"/>
+      <c r="O26" s="25"/>
       <c r="P26" s="10"/>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B27" s="17"/>
       <c r="C27" s="18"/>
-      <c r="D27" s="22" t="s">
+      <c r="D27" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="22"/>
-      <c r="L27" s="22"/>
-      <c r="M27" s="22"/>
-      <c r="N27" s="22"/>
-      <c r="O27" s="23"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="24"/>
+      <c r="O27" s="25"/>
       <c r="P27" s="10"/>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B28" s="17"/>
-      <c r="C28" s="22" t="s">
+      <c r="C28" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="22"/>
-      <c r="L28" s="22"/>
-      <c r="M28" s="22"/>
-      <c r="N28" s="22"/>
-      <c r="O28" s="23"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="24"/>
+      <c r="N28" s="24"/>
+      <c r="O28" s="25"/>
       <c r="P28" s="10"/>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B29" s="17"/>
-      <c r="C29" s="22" t="s">
+      <c r="C29" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="22"/>
-      <c r="L29" s="22"/>
-      <c r="M29" s="22"/>
-      <c r="N29" s="22"/>
-      <c r="O29" s="23"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="24"/>
+      <c r="N29" s="24"/>
+      <c r="O29" s="25"/>
       <c r="P29" s="10"/>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B30" s="17"/>
       <c r="C30" s="18"/>
-      <c r="D30" s="22" t="s">
+      <c r="D30" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="22"/>
-      <c r="L30" s="22"/>
-      <c r="M30" s="22"/>
-      <c r="N30" s="22"/>
-      <c r="O30" s="23"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="24"/>
+      <c r="N30" s="24"/>
+      <c r="O30" s="25"/>
       <c r="P30" s="10"/>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B31" s="17"/>
-      <c r="C31" s="22" t="s">
+      <c r="C31" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="22"/>
-      <c r="J31" s="22"/>
-      <c r="K31" s="22"/>
-      <c r="L31" s="22"/>
-      <c r="M31" s="22"/>
-      <c r="N31" s="22"/>
-      <c r="O31" s="23"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="24"/>
+      <c r="L31" s="24"/>
+      <c r="M31" s="24"/>
+      <c r="N31" s="24"/>
+      <c r="O31" s="25"/>
       <c r="P31" s="10"/>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B32" s="17"/>
-      <c r="C32" s="22" t="s">
+      <c r="C32" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="22"/>
-      <c r="J32" s="22"/>
-      <c r="K32" s="22"/>
-      <c r="L32" s="22"/>
-      <c r="M32" s="22"/>
-      <c r="N32" s="22"/>
-      <c r="O32" s="23"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="24"/>
+      <c r="K32" s="24"/>
+      <c r="L32" s="24"/>
+      <c r="M32" s="24"/>
+      <c r="N32" s="24"/>
+      <c r="O32" s="25"/>
       <c r="P32" s="10"/>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B33" s="17"/>
       <c r="C33" s="18"/>
-      <c r="D33" s="22" t="s">
+      <c r="D33" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="22"/>
-      <c r="J33" s="22"/>
-      <c r="K33" s="22"/>
-      <c r="L33" s="22"/>
-      <c r="M33" s="22"/>
-      <c r="N33" s="22"/>
-      <c r="O33" s="23"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="24"/>
+      <c r="M33" s="24"/>
+      <c r="N33" s="24"/>
+      <c r="O33" s="25"/>
       <c r="P33" s="10"/>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B34" s="17"/>
-      <c r="C34" s="22" t="s">
+      <c r="C34" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="22"/>
-      <c r="J34" s="22"/>
-      <c r="K34" s="22"/>
-      <c r="L34" s="22"/>
-      <c r="M34" s="22"/>
-      <c r="N34" s="22"/>
-      <c r="O34" s="23"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="24"/>
+      <c r="M34" s="24"/>
+      <c r="N34" s="24"/>
+      <c r="O34" s="25"/>
       <c r="P34" s="10"/>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B35" s="17"/>
-      <c r="C35" s="22" t="s">
+      <c r="C35" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="22"/>
-      <c r="J35" s="22"/>
-      <c r="K35" s="22"/>
-      <c r="L35" s="22"/>
-      <c r="M35" s="22"/>
-      <c r="N35" s="22"/>
-      <c r="O35" s="23"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="24"/>
+      <c r="K35" s="24"/>
+      <c r="L35" s="24"/>
+      <c r="M35" s="24"/>
+      <c r="N35" s="24"/>
+      <c r="O35" s="25"/>
       <c r="P35" s="10"/>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B36" s="17"/>
       <c r="C36" s="18"/>
-      <c r="D36" s="22" t="s">
+      <c r="D36" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="22"/>
-      <c r="J36" s="22"/>
-      <c r="K36" s="22"/>
-      <c r="L36" s="22"/>
-      <c r="M36" s="22"/>
-      <c r="N36" s="22"/>
-      <c r="O36" s="23"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="24"/>
+      <c r="J36" s="24"/>
+      <c r="K36" s="24"/>
+      <c r="L36" s="24"/>
+      <c r="M36" s="24"/>
+      <c r="N36" s="24"/>
+      <c r="O36" s="25"/>
       <c r="P36" s="10"/>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B37" s="17"/>
-      <c r="C37" s="22" t="s">
+      <c r="C37" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="22"/>
-      <c r="J37" s="22"/>
-      <c r="K37" s="22"/>
-      <c r="L37" s="22"/>
-      <c r="M37" s="22"/>
-      <c r="N37" s="22"/>
-      <c r="O37" s="23"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="24"/>
+      <c r="J37" s="24"/>
+      <c r="K37" s="24"/>
+      <c r="L37" s="24"/>
+      <c r="M37" s="24"/>
+      <c r="N37" s="24"/>
+      <c r="O37" s="25"/>
       <c r="P37" s="10"/>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B38" s="17"/>
-      <c r="C38" s="22" t="s">
+      <c r="C38" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="22"/>
-      <c r="J38" s="22"/>
-      <c r="K38" s="22"/>
-      <c r="L38" s="22"/>
-      <c r="M38" s="22"/>
-      <c r="N38" s="22"/>
-      <c r="O38" s="23"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="24"/>
+      <c r="J38" s="24"/>
+      <c r="K38" s="24"/>
+      <c r="L38" s="24"/>
+      <c r="M38" s="24"/>
+      <c r="N38" s="24"/>
+      <c r="O38" s="25"/>
       <c r="P38" s="10"/>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B39" s="17"/>
       <c r="C39" s="18"/>
-      <c r="D39" s="22" t="s">
+      <c r="D39" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="22"/>
-      <c r="I39" s="22"/>
-      <c r="J39" s="22"/>
-      <c r="K39" s="22"/>
-      <c r="L39" s="22"/>
-      <c r="M39" s="22"/>
-      <c r="N39" s="22"/>
-      <c r="O39" s="23"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="24"/>
+      <c r="J39" s="24"/>
+      <c r="K39" s="24"/>
+      <c r="L39" s="24"/>
+      <c r="M39" s="24"/>
+      <c r="N39" s="24"/>
+      <c r="O39" s="25"/>
       <c r="P39" s="10"/>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B40" s="17"/>
-      <c r="C40" s="22" t="s">
+      <c r="C40" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
-      <c r="H40" s="22"/>
-      <c r="I40" s="22"/>
-      <c r="J40" s="22"/>
-      <c r="K40" s="22"/>
-      <c r="L40" s="22"/>
-      <c r="M40" s="22"/>
-      <c r="N40" s="22"/>
-      <c r="O40" s="23"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="24"/>
+      <c r="J40" s="24"/>
+      <c r="K40" s="24"/>
+      <c r="L40" s="24"/>
+      <c r="M40" s="24"/>
+      <c r="N40" s="24"/>
+      <c r="O40" s="25"/>
       <c r="P40" s="10"/>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B41" s="17"/>
-      <c r="C41" s="22" t="s">
+      <c r="C41" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="D41" s="22"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="22"/>
-      <c r="H41" s="22"/>
-      <c r="I41" s="22"/>
-      <c r="J41" s="22"/>
-      <c r="K41" s="22"/>
-      <c r="L41" s="22"/>
-      <c r="M41" s="22"/>
-      <c r="N41" s="22"/>
-      <c r="O41" s="23"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="24"/>
+      <c r="J41" s="24"/>
+      <c r="K41" s="24"/>
+      <c r="L41" s="24"/>
+      <c r="M41" s="24"/>
+      <c r="N41" s="24"/>
+      <c r="O41" s="25"/>
       <c r="P41" s="10"/>
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B42" s="17"/>
       <c r="C42" s="18"/>
-      <c r="D42" s="22" t="s">
+      <c r="D42" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="E42" s="22"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="22"/>
-      <c r="H42" s="22"/>
-      <c r="I42" s="22"/>
-      <c r="J42" s="22"/>
-      <c r="K42" s="22"/>
-      <c r="L42" s="22"/>
-      <c r="M42" s="22"/>
-      <c r="N42" s="22"/>
-      <c r="O42" s="23"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="24"/>
+      <c r="J42" s="24"/>
+      <c r="K42" s="24"/>
+      <c r="L42" s="24"/>
+      <c r="M42" s="24"/>
+      <c r="N42" s="24"/>
+      <c r="O42" s="25"/>
       <c r="P42" s="10"/>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B43" s="17"/>
       <c r="C43" s="18"/>
-      <c r="D43" s="22" t="s">
+      <c r="D43" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="E43" s="22"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="22"/>
-      <c r="H43" s="22"/>
-      <c r="I43" s="22"/>
-      <c r="J43" s="22"/>
-      <c r="K43" s="22"/>
-      <c r="L43" s="22"/>
-      <c r="M43" s="22"/>
-      <c r="N43" s="22"/>
-      <c r="O43" s="23"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="24"/>
+      <c r="J43" s="24"/>
+      <c r="K43" s="24"/>
+      <c r="L43" s="24"/>
+      <c r="M43" s="24"/>
+      <c r="N43" s="24"/>
+      <c r="O43" s="25"/>
       <c r="P43" s="10"/>
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B44" s="17"/>
-      <c r="C44" s="22" t="s">
+      <c r="C44" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="D44" s="22"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="22"/>
-      <c r="H44" s="22"/>
-      <c r="I44" s="22"/>
-      <c r="J44" s="22"/>
-      <c r="K44" s="22"/>
-      <c r="L44" s="22"/>
-      <c r="M44" s="22"/>
-      <c r="N44" s="22"/>
-      <c r="O44" s="23"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="24"/>
+      <c r="J44" s="24"/>
+      <c r="K44" s="24"/>
+      <c r="L44" s="24"/>
+      <c r="M44" s="24"/>
+      <c r="N44" s="24"/>
+      <c r="O44" s="25"/>
       <c r="P44" s="10"/>
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B45" s="17"/>
-      <c r="C45" s="22" t="s">
+      <c r="C45" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="D45" s="22"/>
-      <c r="E45" s="22"/>
-      <c r="F45" s="22"/>
-      <c r="G45" s="22"/>
-      <c r="H45" s="22"/>
-      <c r="I45" s="22"/>
-      <c r="J45" s="22"/>
-      <c r="K45" s="22"/>
-      <c r="L45" s="22"/>
-      <c r="M45" s="22"/>
-      <c r="N45" s="22"/>
-      <c r="O45" s="23"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="24"/>
+      <c r="H45" s="24"/>
+      <c r="I45" s="24"/>
+      <c r="J45" s="24"/>
+      <c r="K45" s="24"/>
+      <c r="L45" s="24"/>
+      <c r="M45" s="24"/>
+      <c r="N45" s="24"/>
+      <c r="O45" s="25"/>
       <c r="P45" s="10"/>
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B46" s="17"/>
-      <c r="C46" s="22" t="s">
+      <c r="C46" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="D46" s="22"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="22"/>
-      <c r="G46" s="22"/>
-      <c r="H46" s="22"/>
-      <c r="I46" s="22"/>
-      <c r="J46" s="22"/>
-      <c r="K46" s="22"/>
-      <c r="L46" s="22"/>
-      <c r="M46" s="22"/>
-      <c r="N46" s="22"/>
-      <c r="O46" s="23"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="24"/>
+      <c r="H46" s="24"/>
+      <c r="I46" s="24"/>
+      <c r="J46" s="24"/>
+      <c r="K46" s="24"/>
+      <c r="L46" s="24"/>
+      <c r="M46" s="24"/>
+      <c r="N46" s="24"/>
+      <c r="O46" s="25"/>
       <c r="P46" s="10"/>
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B47" s="17"/>
-      <c r="C47" s="22" t="s">
+      <c r="C47" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="D47" s="22"/>
-      <c r="E47" s="22"/>
-      <c r="F47" s="22"/>
-      <c r="G47" s="22"/>
-      <c r="H47" s="22"/>
-      <c r="I47" s="22"/>
-      <c r="J47" s="22"/>
-      <c r="K47" s="22"/>
-      <c r="L47" s="22"/>
-      <c r="M47" s="22"/>
-      <c r="N47" s="22"/>
-      <c r="O47" s="23"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="24"/>
+      <c r="H47" s="24"/>
+      <c r="I47" s="24"/>
+      <c r="J47" s="24"/>
+      <c r="K47" s="24"/>
+      <c r="L47" s="24"/>
+      <c r="M47" s="24"/>
+      <c r="N47" s="24"/>
+      <c r="O47" s="25"/>
       <c r="P47" s="10"/>
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B48" s="17"/>
-      <c r="C48" s="22" t="s">
+      <c r="C48" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="D48" s="22"/>
-      <c r="E48" s="22"/>
-      <c r="F48" s="22"/>
-      <c r="G48" s="22"/>
-      <c r="H48" s="22"/>
-      <c r="I48" s="22"/>
-      <c r="J48" s="22"/>
-      <c r="K48" s="22"/>
-      <c r="L48" s="22"/>
-      <c r="M48" s="22"/>
-      <c r="N48" s="22"/>
-      <c r="O48" s="23"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="24"/>
+      <c r="H48" s="24"/>
+      <c r="I48" s="24"/>
+      <c r="J48" s="24"/>
+      <c r="K48" s="24"/>
+      <c r="L48" s="24"/>
+      <c r="M48" s="24"/>
+      <c r="N48" s="24"/>
+      <c r="O48" s="25"/>
       <c r="P48" s="10"/>
     </row>
     <row r="49" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B49" s="17"/>
-      <c r="C49" s="22" t="s">
+      <c r="C49" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="D49" s="22"/>
-      <c r="E49" s="22"/>
-      <c r="F49" s="22"/>
-      <c r="G49" s="22"/>
-      <c r="H49" s="22"/>
-      <c r="I49" s="22"/>
-      <c r="J49" s="22"/>
-      <c r="K49" s="22"/>
-      <c r="L49" s="22"/>
-      <c r="M49" s="22"/>
-      <c r="N49" s="22"/>
-      <c r="O49" s="23"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="24"/>
+      <c r="H49" s="24"/>
+      <c r="I49" s="24"/>
+      <c r="J49" s="24"/>
+      <c r="K49" s="24"/>
+      <c r="L49" s="24"/>
+      <c r="M49" s="24"/>
+      <c r="N49" s="24"/>
+      <c r="O49" s="25"/>
       <c r="P49" s="10"/>
     </row>
     <row r="50" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B50" s="17"/>
-      <c r="C50" s="25" t="s">
+      <c r="C50" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="D50" s="25"/>
-      <c r="E50" s="25"/>
-      <c r="F50" s="25"/>
-      <c r="G50" s="25"/>
-      <c r="H50" s="25"/>
-      <c r="I50" s="25"/>
-      <c r="J50" s="25"/>
-      <c r="K50" s="25"/>
-      <c r="L50" s="25"/>
-      <c r="M50" s="25"/>
-      <c r="N50" s="25"/>
-      <c r="O50" s="26"/>
+      <c r="D50" s="30"/>
+      <c r="E50" s="30"/>
+      <c r="F50" s="30"/>
+      <c r="G50" s="30"/>
+      <c r="H50" s="30"/>
+      <c r="I50" s="30"/>
+      <c r="J50" s="30"/>
+      <c r="K50" s="30"/>
+      <c r="L50" s="30"/>
+      <c r="M50" s="30"/>
+      <c r="N50" s="30"/>
+      <c r="O50" s="31"/>
       <c r="P50" s="10"/>
     </row>
     <row r="51" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B51" s="19" t="s">
+      <c r="B51" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="C51" s="20"/>
-      <c r="D51" s="20"/>
-      <c r="E51" s="20"/>
-      <c r="F51" s="20"/>
-      <c r="G51" s="20"/>
-      <c r="H51" s="20"/>
-      <c r="I51" s="20"/>
-      <c r="J51" s="20"/>
-      <c r="K51" s="20"/>
-      <c r="L51" s="20"/>
-      <c r="M51" s="20"/>
-      <c r="N51" s="20"/>
-      <c r="O51" s="21"/>
+      <c r="C51" s="28"/>
+      <c r="D51" s="28"/>
+      <c r="E51" s="28"/>
+      <c r="F51" s="28"/>
+      <c r="G51" s="28"/>
+      <c r="H51" s="28"/>
+      <c r="I51" s="28"/>
+      <c r="J51" s="28"/>
+      <c r="K51" s="28"/>
+      <c r="L51" s="28"/>
+      <c r="M51" s="28"/>
+      <c r="N51" s="28"/>
+      <c r="O51" s="29"/>
       <c r="P51" s="10"/>
     </row>
     <row r="54" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B54" s="27" t="s">
+      <c r="B54" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="C54" s="28"/>
-      <c r="D54" s="28"/>
-      <c r="E54" s="28"/>
-      <c r="F54" s="28"/>
-      <c r="G54" s="28"/>
-      <c r="H54" s="28"/>
-      <c r="I54" s="28"/>
-      <c r="J54" s="28"/>
-      <c r="K54" s="28"/>
-      <c r="L54" s="28"/>
-      <c r="M54" s="28"/>
-      <c r="N54" s="28"/>
-      <c r="O54" s="28"/>
-      <c r="P54" s="28"/>
-      <c r="Q54" s="28"/>
-      <c r="R54" s="28"/>
-      <c r="S54" s="28"/>
-      <c r="T54" s="28"/>
-      <c r="U54" s="28"/>
-      <c r="V54" s="28"/>
-      <c r="W54" s="28"/>
-      <c r="X54" s="28"/>
-      <c r="Y54" s="29"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="20"/>
+      <c r="F54" s="20"/>
+      <c r="G54" s="20"/>
+      <c r="H54" s="20"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="20"/>
+      <c r="K54" s="20"/>
+      <c r="L54" s="20"/>
+      <c r="M54" s="20"/>
+      <c r="N54" s="20"/>
+      <c r="O54" s="20"/>
+      <c r="P54" s="20"/>
+      <c r="Q54" s="20"/>
+      <c r="R54" s="20"/>
+      <c r="S54" s="20"/>
+      <c r="T54" s="20"/>
+      <c r="U54" s="20"/>
+      <c r="V54" s="20"/>
+      <c r="W54" s="20"/>
+      <c r="X54" s="20"/>
+      <c r="Y54" s="21"/>
     </row>
     <row r="55" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B55" s="9"/>
@@ -3005,6 +3005,19 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="B51:O51"/>
+    <mergeCell ref="C45:O45"/>
+    <mergeCell ref="C46:O46"/>
+    <mergeCell ref="C47:O47"/>
+    <mergeCell ref="C48:O48"/>
+    <mergeCell ref="C49:O49"/>
+    <mergeCell ref="C50:O50"/>
+    <mergeCell ref="C40:O40"/>
+    <mergeCell ref="D42:O42"/>
+    <mergeCell ref="C44:O44"/>
+    <mergeCell ref="D39:O39"/>
+    <mergeCell ref="C41:O41"/>
+    <mergeCell ref="D43:O43"/>
     <mergeCell ref="C24:O24"/>
     <mergeCell ref="C25:O25"/>
     <mergeCell ref="B23:O23"/>
@@ -3021,19 +3034,6 @@
     <mergeCell ref="D33:O33"/>
     <mergeCell ref="C35:O35"/>
     <mergeCell ref="D36:O36"/>
-    <mergeCell ref="C40:O40"/>
-    <mergeCell ref="D42:O42"/>
-    <mergeCell ref="C44:O44"/>
-    <mergeCell ref="D39:O39"/>
-    <mergeCell ref="C41:O41"/>
-    <mergeCell ref="D43:O43"/>
-    <mergeCell ref="B51:O51"/>
-    <mergeCell ref="C45:O45"/>
-    <mergeCell ref="C46:O46"/>
-    <mergeCell ref="C47:O47"/>
-    <mergeCell ref="C48:O48"/>
-    <mergeCell ref="C49:O49"/>
-    <mergeCell ref="C50:O50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3055,22 +3055,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="29"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="21"/>
     </row>
     <row r="2" spans="2:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="15"/>
@@ -3666,22 +3666,22 @@
     </row>
     <row r="39" spans="2:15" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="40" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B40" s="27" t="s">
+      <c r="B40" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="C40" s="28"/>
-      <c r="D40" s="28"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="28"/>
-      <c r="G40" s="28"/>
-      <c r="H40" s="28"/>
-      <c r="I40" s="28"/>
-      <c r="J40" s="28"/>
-      <c r="K40" s="28"/>
-      <c r="L40" s="28"/>
-      <c r="M40" s="28"/>
-      <c r="N40" s="28"/>
-      <c r="O40" s="29"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="20"/>
+      <c r="K40" s="20"/>
+      <c r="L40" s="20"/>
+      <c r="M40" s="20"/>
+      <c r="N40" s="20"/>
+      <c r="O40" s="21"/>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B41" s="9"/>
@@ -3813,22 +3813,22 @@
     </row>
     <row r="49" spans="2:15" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="50" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B50" s="27" t="s">
+      <c r="B50" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="C50" s="30"/>
-      <c r="D50" s="30"/>
-      <c r="E50" s="30"/>
-      <c r="F50" s="30"/>
-      <c r="G50" s="30"/>
-      <c r="H50" s="30"/>
-      <c r="I50" s="30"/>
-      <c r="J50" s="30"/>
-      <c r="K50" s="30"/>
-      <c r="L50" s="30"/>
-      <c r="M50" s="30"/>
-      <c r="N50" s="30"/>
-      <c r="O50" s="31"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="22"/>
+      <c r="F50" s="22"/>
+      <c r="G50" s="22"/>
+      <c r="H50" s="22"/>
+      <c r="I50" s="22"/>
+      <c r="J50" s="22"/>
+      <c r="K50" s="22"/>
+      <c r="L50" s="22"/>
+      <c r="M50" s="22"/>
+      <c r="N50" s="22"/>
+      <c r="O50" s="23"/>
     </row>
     <row r="51" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B51" s="9"/>
@@ -4216,25 +4216,25 @@
     </row>
     <row r="76" spans="2:18" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="77" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B77" s="27" t="s">
+      <c r="B77" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="C77" s="28"/>
-      <c r="D77" s="28"/>
-      <c r="E77" s="28"/>
-      <c r="F77" s="28"/>
-      <c r="G77" s="28"/>
-      <c r="H77" s="28"/>
-      <c r="I77" s="28"/>
-      <c r="J77" s="28"/>
-      <c r="K77" s="28"/>
-      <c r="L77" s="28"/>
-      <c r="M77" s="28"/>
-      <c r="N77" s="28"/>
-      <c r="O77" s="28"/>
-      <c r="P77" s="28"/>
-      <c r="Q77" s="28"/>
-      <c r="R77" s="29"/>
+      <c r="C77" s="20"/>
+      <c r="D77" s="20"/>
+      <c r="E77" s="20"/>
+      <c r="F77" s="20"/>
+      <c r="G77" s="20"/>
+      <c r="H77" s="20"/>
+      <c r="I77" s="20"/>
+      <c r="J77" s="20"/>
+      <c r="K77" s="20"/>
+      <c r="L77" s="20"/>
+      <c r="M77" s="20"/>
+      <c r="N77" s="20"/>
+      <c r="O77" s="20"/>
+      <c r="P77" s="20"/>
+      <c r="Q77" s="20"/>
+      <c r="R77" s="21"/>
     </row>
     <row r="78" spans="2:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B78" s="15"/>
